--- a/Lib/APN_list.xlsx
+++ b/Lib/APN_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Dartmedia\Oxygen Preasure Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\iotdm\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EB0107-1301-4613-A723-D55586635730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ABA806-3220-469A-87DB-6F74D3FF67ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{D84A1CDA-B443-4F56-8FC7-7717D9AC0FBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D84A1CDA-B443-4F56-8FC7-7717D9AC0FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +427,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +452,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
